--- a/testing/Testing_v1.4.xlsx
+++ b/testing/Testing_v1.4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Тестирование" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="45">
   <si>
     <t>ESP_MODE</t>
   </si>
@@ -145,6 +145,22 @@
   </si>
   <si>
     <t>повторный запуск после правильной прошивки, основной сценарий использования, WiFi точка доступа</t>
+  </si>
+  <si>
+    <t>основной сценарий использования, WiFi клиент, срабатывание будильника при включенной матрице</t>
+  </si>
+  <si>
+    <t>лампа отображает выбранный режим, потом отрабатывает будильник (пользователь не выключает его), потом лампа продолжает отображать выбранный прежде режим</t>
+  </si>
+  <si>
+    <t>основной сценарий использования, WiFi клиент, срабатывание будильника при выключенной матрице</t>
+  </si>
+  <si>
+    <t>лампа выключена, потом отрабатывает будильник (пользователь не выключает его), потом лампа снова выключается</t>
+  </si>
+  <si>
+    <t>было: лампа выключена, потом отрабатывает будильник (пользователь не выключает его), потом лампа устанавливает яркость последнего выбранного до выключения режима, но продолжает отображать будильник (нет анимации)
+стало: лампа выключена, потом отрабатывает будильник (пользователь не выключает его), потом лампа снова выключается</t>
   </si>
 </sst>
 </file>
@@ -208,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -251,6 +267,12 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -532,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -858,6 +880,58 @@
         <v>20</v>
       </c>
     </row>
+    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>10</v>
+      </c>
+      <c r="B13" s="7">
+        <v>1</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
+        <v>11</v>
+      </c>
+      <c r="B14" s="13">
+        <v>1</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
